--- a/DateBase/orders/Dang Nguyen_2025-9-29.xlsx
+++ b/DateBase/orders/Dang Nguyen_2025-9-29.xlsx
@@ -695,6 +695,9 @@
       <c r="C31" t="str">
         <v>48_香格里拉_undefined_Gerbera L._10stems</v>
       </c>
+      <c r="F31" t="str">
+        <v>20</v>
+      </c>
     </row>
   </sheetData>
   <ignoredErrors>
@@ -756,7 +759,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>012241415221371152810252555254015201531510104010252515300</v>
+        <v>0122414152213711528102525552540152015315101040102525153020</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/Dang Nguyen_2025-9-29.xlsx
+++ b/DateBase/orders/Dang Nguyen_2025-9-29.xlsx
@@ -398,7 +398,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L31"/>
+  <dimension ref="A1:L34"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -699,9 +699,36 @@
         <v>20</v>
       </c>
     </row>
+    <row r="32">
+      <c r="C32" t="str">
+        <v>439_九星叶_undefined_undefined_1bunch</v>
+      </c>
+      <c r="F32" t="str">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="str">
+        <v>7</v>
+      </c>
+      <c r="C33" t="str">
+        <v>12_肉粉洋桔梗_Peach Lisianthus_Eustoma grandiflorum (Raf.) Shinners_800/600g</v>
+      </c>
+      <c r="F33" t="str">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="C34" t="str">
+        <v>595_玉兰叶_undefined_undefined_1bunch</v>
+      </c>
+      <c r="F34" t="str">
+        <v>15</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:L31"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:L34"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -759,7 +786,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>0122414152213711528102525552540152015315101040102525153020</v>
+        <v>0122414152213711528102525552540152015315101040102525153020152515</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/Dang Nguyen_2025-9-29.xlsx
+++ b/DateBase/orders/Dang Nguyen_2025-9-29.xlsx
@@ -788,6 +788,9 @@
       <c r="G2" t="str">
         <v>0122414152213711528102525552540152015315101040102525153020152515</v>
       </c>
+      <c r="H2" t="str">
+        <v>CNY</v>
+      </c>
     </row>
   </sheetData>
   <ignoredErrors>
